--- a/dist/川流车实时信息.xlsx
+++ b/dist/川流车实时信息.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>车牌号</t>
   </si>
@@ -42,63 +42,6 @@
   </si>
   <si>
     <t>沪DL6031</t>
-  </si>
-  <si>
-    <t>苏E0XU23</t>
-  </si>
-  <si>
-    <t>沪DK9757</t>
-  </si>
-  <si>
-    <t>沪NP9098</t>
-  </si>
-  <si>
-    <t>沪D60808</t>
-  </si>
-  <si>
-    <t>沪BEW509</t>
-  </si>
-  <si>
-    <t>苏E0XU86</t>
-  </si>
-  <si>
-    <t>苏E0XT76</t>
-  </si>
-  <si>
-    <t>沪BG1158</t>
-  </si>
-  <si>
-    <t>沪DCC722</t>
-  </si>
-  <si>
-    <t>沪BJU300</t>
-  </si>
-  <si>
-    <t>沪BUC816</t>
-  </si>
-  <si>
-    <t>沪BJU322</t>
-  </si>
-  <si>
-    <t>沪BXZ182</t>
-  </si>
-  <si>
-    <t>沪NR0061</t>
-  </si>
-  <si>
-    <t>沪BJG103</t>
-  </si>
-  <si>
-    <t>沪DL9723</t>
-  </si>
-  <si>
-    <t>沪DP3967</t>
-  </si>
-  <si>
-    <t>沪BEW701</t>
-  </si>
-  <si>
-    <t>沪D60723</t>
   </si>
   <si>
     <t>净空</t>
@@ -477,10 +420,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="A5" sqref="A5:E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -496,10 +439,10 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="E1" t="s">
-        <v>26</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
@@ -550,329 +493,6 @@
         <v>14</v>
       </c>
       <c r="E4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="B5">
-        <v>121.543115</v>
-      </c>
-      <c r="C5">
-        <v>31.114767000000001</v>
-      </c>
-      <c r="D5">
-        <v>14</v>
-      </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="B6">
-        <v>121.543115</v>
-      </c>
-      <c r="C6">
-        <v>31.114767000000001</v>
-      </c>
-      <c r="D6">
-        <v>14</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7">
-        <v>121.543115</v>
-      </c>
-      <c r="C7">
-        <v>31.114767000000001</v>
-      </c>
-      <c r="D7">
-        <v>14</v>
-      </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B8">
-        <v>121.543115</v>
-      </c>
-      <c r="C8">
-        <v>31.114767000000001</v>
-      </c>
-      <c r="D8">
-        <v>14</v>
-      </c>
-      <c r="E8">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>121.543115</v>
-      </c>
-      <c r="C9">
-        <v>31.114767000000001</v>
-      </c>
-      <c r="D9">
-        <v>14</v>
-      </c>
-      <c r="E9">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10">
-        <v>121.543115</v>
-      </c>
-      <c r="C10">
-        <v>31.114767000000001</v>
-      </c>
-      <c r="D10">
-        <v>14</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A11" t="s">
-        <v>12</v>
-      </c>
-      <c r="B11">
-        <v>121.543115</v>
-      </c>
-      <c r="C11">
-        <v>31.114767000000001</v>
-      </c>
-      <c r="D11">
-        <v>14</v>
-      </c>
-      <c r="E11">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12">
-        <v>121.543115</v>
-      </c>
-      <c r="C12">
-        <v>31.114767000000001</v>
-      </c>
-      <c r="D12">
-        <v>14</v>
-      </c>
-      <c r="E12">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A13" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13">
-        <v>121.543115</v>
-      </c>
-      <c r="C13">
-        <v>31.114767000000001</v>
-      </c>
-      <c r="D13">
-        <v>14</v>
-      </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>15</v>
-      </c>
-      <c r="B14">
-        <v>121.543115</v>
-      </c>
-      <c r="C14">
-        <v>31.114767000000001</v>
-      </c>
-      <c r="D14">
-        <v>14</v>
-      </c>
-      <c r="E14">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="B15">
-        <v>121.543115</v>
-      </c>
-      <c r="C15">
-        <v>31.114767000000001</v>
-      </c>
-      <c r="D15">
-        <v>14</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B16">
-        <v>121.543115</v>
-      </c>
-      <c r="C16">
-        <v>31.114767000000001</v>
-      </c>
-      <c r="D16">
-        <v>14</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>18</v>
-      </c>
-      <c r="B17">
-        <v>121.543115</v>
-      </c>
-      <c r="C17">
-        <v>31.114767000000001</v>
-      </c>
-      <c r="D17">
-        <v>14</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
-        <v>19</v>
-      </c>
-      <c r="B18">
-        <v>121.543115</v>
-      </c>
-      <c r="C18">
-        <v>31.114767000000001</v>
-      </c>
-      <c r="D18">
-        <v>14</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="B19">
-        <v>121.543115</v>
-      </c>
-      <c r="C19">
-        <v>31.114767000000001</v>
-      </c>
-      <c r="D19">
-        <v>14</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A20" t="s">
-        <v>21</v>
-      </c>
-      <c r="B20">
-        <v>121.543115</v>
-      </c>
-      <c r="C20">
-        <v>31.114767000000001</v>
-      </c>
-      <c r="D20">
-        <v>14</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A21" t="s">
-        <v>22</v>
-      </c>
-      <c r="B21">
-        <v>121.543115</v>
-      </c>
-      <c r="C21">
-        <v>31.114767000000001</v>
-      </c>
-      <c r="D21">
-        <v>14</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A22" t="s">
-        <v>23</v>
-      </c>
-      <c r="B22">
-        <v>121.543115</v>
-      </c>
-      <c r="C22">
-        <v>31.114767000000001</v>
-      </c>
-      <c r="D22">
-        <v>14</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A23" t="s">
-        <v>24</v>
-      </c>
-      <c r="B23">
-        <v>121.543115</v>
-      </c>
-      <c r="C23">
-        <v>31.114767000000001</v>
-      </c>
-      <c r="D23">
-        <v>14</v>
-      </c>
-      <c r="E23">
         <v>1</v>
       </c>
     </row>
